--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.costamagna\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.costamagna\PycharmProjects\hackapizza-AI-hackaton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A7A86E00-2279-42D5-B37B-33E510FC3D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFDA264-25B3-4FB2-BD03-39E850610C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="45">
   <si>
     <t>row_id</t>
   </si>
@@ -109,13 +109,58 @@
     <t>128,37,91,45</t>
   </si>
   <si>
-    <t>Abbiamo due problemi qua: primo non capisce che deve fare AND e fa intersezione. Due abbiamo l'ingrediente 'Uova' e 'Uovo'</t>
+    <t>Abbiamo due problemi qua: primo non capisce che deve fare AND e fa intersezione. Fare Attenzione se fa query per considerare sia uova che uovo</t>
+  </si>
+  <si>
+    <t>Fa OR invece che AND sui 3 ingredienti. Eventualmente da risolvere con few shot</t>
+  </si>
+  <si>
+    <t>54; 103</t>
+  </si>
+  <si>
+    <t>168, 241</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Fa OR invece che AND sui 2 ingredienti. Eventualmente da risolvere con few shot</t>
+  </si>
+  <si>
+    <t>Problema di KB</t>
+  </si>
+  <si>
+    <t>34, 205</t>
+  </si>
+  <si>
+    <t>21, 115, 187, 243</t>
+  </si>
+  <si>
+    <t>Non fa la query finale, fa le richieste singole</t>
+  </si>
+  <si>
+    <t>4, 62, 96, 145, 205, 243</t>
+  </si>
+  <si>
+    <t>110, 112, 180, 190, 205</t>
+  </si>
+  <si>
+    <t>166, 221</t>
+  </si>
+  <si>
+    <t>Non fa la query finale, fa le richieste singole. Non considera di escludere la tecnia e non mette in AND gli ingredienti</t>
+  </si>
+  <si>
+    <t>Sbaglia la query finale</t>
+  </si>
+  <si>
+    <t>124, 128</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -608,7 +653,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -629,6 +674,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -986,23 +1040,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="15.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.90625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="62.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="36.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="196.26953125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1342,8 +1397,11 @@
       <c r="F16" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1359,8 +1417,11 @@
       <c r="F17" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1376,8 +1437,11 @@
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1393,166 +1457,373 @@
       <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="G19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="C20" s="8">
+        <v>53</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>53</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>241</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C23" s="1">
+        <v>74</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>149</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C24" s="1">
+        <v>149</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C25" s="1">
+        <v>118</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>115243</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>96145243</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>168</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35" s="1">
+        <v>272</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36" s="1">
+        <v>217</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>276247</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37" s="2">
+        <v>72247276</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38" s="1">
+        <v>140</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1560,7 +1831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1568,7 +1839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1576,7 +1847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1584,7 +1855,7 @@
         <v>200191</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1592,7 +1863,7 @@
         <v>48179</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1600,7 +1871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1608,7 +1879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1616,7 +1887,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1624,7 +1895,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.costamagna\PycharmProjects\hackapizza-AI-hackaton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFDA264-25B3-4FB2-BD03-39E850610C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C914755C-D83E-4090-9F87-83C4B6F6ECFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="45">
   <si>
     <t>row_id</t>
   </si>
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1805,6 +1805,9 @@
       <c r="F37" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="G37" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
@@ -1820,6 +1823,9 @@
         <v>1</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.costamagna\PycharmProjects\hackapizza-AI-hackaton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C914755C-D83E-4090-9F87-83C4B6F6ECFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC855ACE-DCAD-4435-B9A1-8AD06723C516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="52">
   <si>
     <t>row_id</t>
   </si>
@@ -155,6 +155,27 @@
   </si>
   <si>
     <t>124, 128</t>
+  </si>
+  <si>
+    <t>Sbaglia la query finale mettendo un not al posto di un and</t>
+  </si>
+  <si>
+    <t>42,247,99,85,5,160</t>
+  </si>
+  <si>
+    <t>Doppia tecnica nel db con stesso nome</t>
+  </si>
+  <si>
+    <t>49,41,197,50,235,140,158</t>
+  </si>
+  <si>
+    <t>48, 179</t>
+  </si>
+  <si>
+    <t>37,275,64,123,265,59</t>
+  </si>
+  <si>
+    <t>147,61,142,281,169</t>
   </si>
 </sst>
 </file>
@@ -1043,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1718,7 +1739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1738,7 +1759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1752,7 +1773,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1772,7 +1793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1789,7 +1810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1809,7 +1830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1829,63 +1850,150 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C39" s="1">
+        <v>188</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>200191</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C42" s="2">
+        <v>191187</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="2">
         <v>48179</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1893,7 +2001,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1901,7 +2009,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.costamagna\PycharmProjects\hackapizza-AI-hackaton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC855ACE-DCAD-4435-B9A1-8AD06723C516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1440C34-8176-47A8-B916-0FB2DD62380C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="64">
   <si>
     <t>row_id</t>
   </si>
@@ -34,9 +45,6 @@
     <t>Acc</t>
   </si>
   <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
     <t>Notes - GPT 4o mini</t>
   </si>
   <si>
@@ -46,21 +54,9 @@
     <t>V</t>
   </si>
   <si>
-    <t>189, 267</t>
-  </si>
-  <si>
     <t>130,13,15</t>
   </si>
   <si>
-    <t>13, 15, 51, 130, 209</t>
-  </si>
-  <si>
-    <t>115, 266</t>
-  </si>
-  <si>
-    <t>185, 240</t>
-  </si>
-  <si>
     <t>Idem a sopra</t>
   </si>
   <si>
@@ -97,12 +93,6 @@
     <t>A volte la azzecca. Non crea la query finale unica ma le splitta e non mergia bene i risultati</t>
   </si>
   <si>
-    <t>269,147,103,35,10,125,281,191,160</t>
-  </si>
-  <si>
-    <t>269,147,103,35,10,125,281,217,191,160</t>
-  </si>
-  <si>
     <t>112,263,276,170,157,16,215</t>
   </si>
   <si>
@@ -115,67 +105,124 @@
     <t>Fa OR invece che AND sui 3 ingredienti. Eventualmente da risolvere con few shot</t>
   </si>
   <si>
-    <t>54; 103</t>
-  </si>
-  <si>
-    <t>168, 241</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>Fa OR invece che AND sui 2 ingredienti. Eventualmente da risolvere con few shot</t>
   </si>
   <si>
     <t>Problema di KB</t>
   </si>
   <si>
-    <t>34, 205</t>
-  </si>
-  <si>
-    <t>21, 115, 187, 243</t>
-  </si>
-  <si>
     <t>Non fa la query finale, fa le richieste singole</t>
   </si>
   <si>
-    <t>4, 62, 96, 145, 205, 243</t>
-  </si>
-  <si>
-    <t>110, 112, 180, 190, 205</t>
-  </si>
-  <si>
-    <t>166, 221</t>
-  </si>
-  <si>
     <t>Non fa la query finale, fa le richieste singole. Non considera di escludere la tecnia e non mette in AND gli ingredienti</t>
   </si>
   <si>
     <t>Sbaglia la query finale</t>
   </si>
   <si>
-    <t>124, 128</t>
-  </si>
-  <si>
     <t>Sbaglia la query finale mettendo un not al posto di un and</t>
   </si>
   <si>
-    <t>42,247,99,85,5,160</t>
-  </si>
-  <si>
     <t>Doppia tecnica nel db con stesso nome</t>
   </si>
   <si>
-    <t>49,41,197,50,235,140,158</t>
-  </si>
-  <si>
-    <t>48, 179</t>
-  </si>
-  <si>
-    <t>37,275,64,123,265,59</t>
-  </si>
-  <si>
     <t>147,61,142,281,169</t>
+  </si>
+  <si>
+    <t>Fa l'or tra gli ingredienti invece che l'AND</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Errore nella KB</t>
+  </si>
+  <si>
+    <t>183,146,50,218,176</t>
+  </si>
+  <si>
+    <t>15,130,13,6,209,51</t>
+  </si>
+  <si>
+    <t>81,101,1</t>
+  </si>
+  <si>
+    <t>269,147,34,35,10,125,248,281,191,160</t>
+  </si>
+  <si>
+    <t>147,34,35,10,125,248,281,217,191,160</t>
+  </si>
+  <si>
+    <t>103,54</t>
+  </si>
+  <si>
+    <t>205,34</t>
+  </si>
+  <si>
+    <t>92,17,115,21,243,187</t>
+  </si>
+  <si>
+    <t>4,17,205,145,96,243,62</t>
+  </si>
+  <si>
+    <t>205,190,112,110,180,77</t>
+  </si>
+  <si>
+    <t>268,195,209,62,160,35,145,73,34,42,247,99,85,5</t>
+  </si>
+  <si>
+    <t>49,43,197,50,235,140,158</t>
+  </si>
+  <si>
+    <t>207,37,275,64,123,265,59</t>
+  </si>
+  <si>
+    <t>132,52</t>
+  </si>
+  <si>
+    <t>Problema di LTK VI+</t>
+  </si>
+  <si>
+    <t>43, 254</t>
+  </si>
+  <si>
+    <t>Problema KB</t>
+  </si>
+  <si>
+    <t>270,78,94</t>
+  </si>
+  <si>
+    <t>46,77</t>
+  </si>
+  <si>
+    <t>53,75,12</t>
+  </si>
+  <si>
+    <t>165,164,252,181,50,218</t>
+  </si>
+  <si>
+    <t>145,107,74,170,45,169,225,127</t>
+  </si>
+  <si>
+    <t>147,52,190</t>
+  </si>
+  <si>
+    <t>236,107,96,16,166,55,89,129</t>
+  </si>
+  <si>
+    <t>149,197,119,117,235,86</t>
+  </si>
+  <si>
+    <t>49,43,197,140,153,158,235</t>
+  </si>
+  <si>
+    <t>75,96,271,124,26,51</t>
+  </si>
+  <si>
+    <t>60,141,81,116,273,131,70</t>
+  </si>
+  <si>
+    <t>71,44,121,120</t>
   </si>
 </sst>
 </file>
@@ -674,7 +721,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -705,6 +752,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1064,17 +1117,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="15.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="36.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.1796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="68.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="196.26953125" style="1" customWidth="1"/>
@@ -1094,14 +1147,11 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1111,17 +1161,18 @@
       <c r="B2" s="1">
         <v>78</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="11">
         <v>78</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
+      <c r="E2" s="11"/>
       <c r="F2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1131,17 +1182,18 @@
       <c r="B3" s="1">
         <v>225</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="11">
         <v>225</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1151,17 +1203,18 @@
       <c r="B4" s="1">
         <v>156</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="11">
         <v>156</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1171,17 +1224,18 @@
       <c r="B5" s="1">
         <v>50</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="11">
         <v>215</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1191,17 +1245,18 @@
       <c r="B6" s="1">
         <v>50</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="11">
         <v>94</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
+      <c r="E6" s="11"/>
       <c r="F6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1211,17 +1266,18 @@
       <c r="B7" s="1">
         <v>179</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="11">
         <v>179</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1231,17 +1287,18 @@
       <c r="B8" s="1">
         <v>189</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
+      <c r="C8" s="12">
+        <v>171267189</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
+      <c r="E8" s="12"/>
       <c r="F8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1249,19 +1306,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -1271,20 +1329,18 @@
       <c r="B10" s="1">
         <v>76</v>
       </c>
-      <c r="C10" s="1">
-        <v>76</v>
+      <c r="C10" s="12">
+        <v>76207</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
-        <v>65</v>
-      </c>
+      <c r="E10" s="12"/>
       <c r="F10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1294,20 +1350,18 @@
       <c r="B11" s="2">
         <v>266115</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
+      <c r="C11" s="12">
+        <v>184115266</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
-        <v>74</v>
-      </c>
+      <c r="E11" s="12"/>
       <c r="F11" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -1317,20 +1371,18 @@
       <c r="B12" s="1">
         <v>50</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="11">
         <v>104</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
-        <v>182</v>
-      </c>
+      <c r="E12" s="11"/>
       <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1340,20 +1392,18 @@
       <c r="B13" s="1">
         <v>240</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
+      <c r="C13" s="12">
+        <v>240185</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
-        <v>50</v>
-      </c>
+      <c r="E13" s="12"/>
       <c r="F13" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1363,20 +1413,18 @@
       <c r="B14" s="1">
         <v>50</v>
       </c>
-      <c r="C14" s="1">
-        <v>125</v>
+      <c r="C14" s="12">
+        <v>125197</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="1">
-        <v>126</v>
-      </c>
+      <c r="E14" s="12"/>
       <c r="F14" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1386,20 +1434,18 @@
       <c r="B15" s="1">
         <v>50</v>
       </c>
-      <c r="C15" s="1">
-        <v>101</v>
+      <c r="C15" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
-        <v>50</v>
-      </c>
+      <c r="E15" s="11"/>
       <c r="F15" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1409,17 +1455,18 @@
       <c r="B16" s="1">
         <v>50</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
+      <c r="C16" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
       </c>
+      <c r="E16" s="11"/>
       <c r="F16" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1429,17 +1476,18 @@
       <c r="B17" s="1">
         <v>50</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
+      <c r="C17" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
       </c>
+      <c r="E17" s="11"/>
       <c r="F17" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1449,17 +1497,18 @@
       <c r="B18" s="2">
         <v>112170276157</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
+      <c r="C18" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
       </c>
+      <c r="E18" s="11"/>
       <c r="F18" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1467,19 +1516,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
       </c>
+      <c r="E19" s="11"/>
       <c r="F19" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -1487,25 +1537,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="8">
+        <v>10</v>
+      </c>
+      <c r="C20" s="11">
         <v>53</v>
       </c>
       <c r="D20" s="9">
         <v>1</v>
       </c>
-      <c r="E20" s="8">
-        <v>53</v>
-      </c>
+      <c r="E20" s="11"/>
       <c r="F20" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1515,17 +1563,18 @@
       <c r="B21" s="1">
         <v>50</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>31</v>
+      <c r="C21" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
       </c>
+      <c r="E21" s="11"/>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1535,20 +1584,18 @@
       <c r="B22" s="1">
         <v>241</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>32</v>
+      <c r="C22" s="12">
+        <v>168241</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E22" s="12"/>
       <c r="F22" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1556,19 +1603,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="1">
+        <v>11</v>
+      </c>
+      <c r="C23" s="11">
         <v>74</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
       </c>
+      <c r="E23" s="11"/>
       <c r="F23" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1578,17 +1626,18 @@
       <c r="B24" s="1">
         <v>149</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="11">
         <v>149</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
       </c>
+      <c r="E24" s="11"/>
       <c r="F24" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -1598,17 +1647,18 @@
       <c r="B25" s="1">
         <v>50</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="11">
         <v>118</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
       </c>
+      <c r="E25" s="11"/>
       <c r="F25" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -1618,11 +1668,18 @@
       <c r="B26" s="1">
         <v>50</v>
       </c>
+      <c r="C26" s="11">
+        <v>81</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11"/>
       <c r="F26" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1632,17 +1689,18 @@
       <c r="B27" s="1">
         <v>34</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>36</v>
+      <c r="C27" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
       </c>
+      <c r="E27" s="11"/>
       <c r="F27" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1652,17 +1710,18 @@
       <c r="B28" s="2">
         <v>115243</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>37</v>
+      <c r="C28" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
       </c>
+      <c r="E28" s="11"/>
       <c r="F28" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -1672,17 +1731,18 @@
       <c r="B29" s="2">
         <v>96145243</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>39</v>
+      <c r="C29" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
       </c>
+      <c r="E29" s="11"/>
       <c r="F29" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1692,11 +1752,18 @@
       <c r="B30" s="1">
         <v>50</v>
       </c>
+      <c r="C30" s="11">
+        <v>234</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="11"/>
       <c r="F30" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -1706,17 +1773,18 @@
       <c r="B31" s="1">
         <v>180</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>40</v>
+      <c r="C31" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
       </c>
+      <c r="E31" s="11"/>
       <c r="F31" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1726,17 +1794,18 @@
       <c r="B32" s="1">
         <v>168</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>41</v>
+      <c r="C32" s="11">
+        <v>166</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
       </c>
+      <c r="E32" s="11"/>
       <c r="F32" s="7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -1746,17 +1815,18 @@
       <c r="B33" s="1">
         <v>128</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>44</v>
+      <c r="C33" s="12">
+        <v>206128131124</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
       </c>
+      <c r="E33" s="12"/>
       <c r="F33" s="7" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -1766,11 +1836,18 @@
       <c r="B34" s="1">
         <v>50</v>
       </c>
+      <c r="C34" s="11">
+        <v>71</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11"/>
       <c r="F34" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -1780,17 +1857,18 @@
       <c r="B35" s="1">
         <v>50</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="11">
         <v>272</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
       </c>
+      <c r="E35" s="11"/>
       <c r="F35" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -1800,14 +1878,18 @@
       <c r="B36" s="1">
         <v>50</v>
       </c>
-      <c r="C36" s="1">
-        <v>217</v>
+      <c r="C36" s="12">
+        <v>121217</v>
       </c>
       <c r="D36" s="5">
         <v>1</v>
       </c>
+      <c r="E36" s="12"/>
       <c r="F36" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -1817,17 +1899,18 @@
       <c r="B37" s="2">
         <v>276247</v>
       </c>
-      <c r="C37" s="2">
-        <v>72247276</v>
+      <c r="C37" s="12">
+        <v>72276247</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
       </c>
+      <c r="E37" s="12"/>
       <c r="F37" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -1837,17 +1920,18 @@
       <c r="B38" s="1">
         <v>50</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="11">
         <v>140</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
       </c>
+      <c r="E38" s="11"/>
       <c r="F38" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -1857,17 +1941,18 @@
       <c r="B39" s="1">
         <v>50</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="11">
         <v>188</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
       </c>
+      <c r="E39" s="11"/>
       <c r="F39" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -1877,20 +1962,21 @@
       <c r="B40" s="1">
         <v>50</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>46</v>
+      <c r="C40" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="D40" s="5">
         <v>0.9</v>
       </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -1898,19 +1984,20 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="D41" s="5">
         <v>1</v>
       </c>
+      <c r="E41" s="11"/>
       <c r="F41" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -1920,17 +2007,18 @@
       <c r="B42" s="2">
         <v>200191</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="12">
         <v>191187</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
       </c>
+      <c r="E42" s="12"/>
       <c r="F42" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -1940,17 +2028,18 @@
       <c r="B43" s="2">
         <v>48179</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>49</v>
+      <c r="C43" s="12">
+        <v>48179</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
       </c>
+      <c r="E43" s="12"/>
       <c r="F43" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -1958,19 +2047,20 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
       </c>
+      <c r="E44" s="11"/>
       <c r="F44" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -1978,19 +2068,20 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
       </c>
+      <c r="E45" s="11"/>
       <c r="F45" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -2000,6 +2091,19 @@
       <c r="B46" s="1">
         <v>89</v>
       </c>
+      <c r="C46" s="11">
+        <v>89</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
@@ -2008,6 +2112,19 @@
       <c r="B47" s="1">
         <v>286</v>
       </c>
+      <c r="C47" s="11">
+        <v>286</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
@@ -2016,240 +2133,508 @@
       <c r="B48" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C48" s="11">
+        <v>280</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C49" s="11">
+        <v>169</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="2">
         <v>66108271</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C50" s="12">
+        <v>271108</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C51" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="G51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C52" s="1">
+        <v>102</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C54" s="1">
+        <v>258</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C56" s="1">
+        <v>268</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C57" s="2">
+        <v>272114</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>265190254</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C61" s="2">
+        <v>27197274125</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C64" s="1">
+        <v>174</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C65" s="2">
+        <v>166198</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C67" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1">
         <v>196</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C72" s="1">
+        <v>112</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C75" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2257,7 +2642,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2265,7 +2650,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>79</v>
       </c>
